--- a/research_additional_tasks.xlsx
+++ b/research_additional_tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\Amsterdam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\Documents\projects\research\acdc\acdc-database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4289F3EA-FE80-40AA-A16B-D527EA908D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF3AECC-F357-49A4-9ED4-67C172D21FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{1F1F54FA-0BE8-42EE-99D2-440252AB0FC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{1F1F54FA-0BE8-42EE-99D2-440252AB0FC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -83,9 +81,6 @@
     <t>whitehead_2022</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Adaptive N-back, Angling Risk, ANT, Bickel Titrator, Choice RT, CRT, CCT Cold, CCT Hot, Dietary, Digit Span, Directed Forgetting, Discounting, DPX, Go-Nogo, Hierarchical Rule, Holt Laury, Information Sampling, Keep Track, Kirby, Local Global, Motor SSS, Prob Selection, PRP, Raven's, Recent Probes, Shape Matching, Shifting, Simon, Simple RT, Spatial Span, Stim SSS, Stop Signal, Stroop, Task Switching, Tower of London, Two Step</t>
   </si>
   <si>
@@ -120,13 +115,16 @@
   </si>
   <si>
     <t xml:space="preserve">Stroop, Simon, Flanker  </t>
+  </si>
+  <si>
+    <t>Flanker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,19 +492,19 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
-    <col min="3" max="3" width="40.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -518,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -537,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -548,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -559,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -570,10 +568,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -581,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -592,10 +590,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -603,10 +601,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -614,10 +612,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -625,10 +623,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -636,10 +634,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -647,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
